--- a/Project 2/Documents/OctaveDocuments/SalterOutput/output2SaltedGraph.xlsx
+++ b/Project 2/Documents/OctaveDocuments/SalterOutput/output2SaltedGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Documents\OctaveDocuments\SalterOutput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Octave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0B83B2-0374-4A9C-8DBC-7C10B48A83C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2056823D-79ED-4862-99C6-D43870C23571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{662DD930-B8E0-4087-8EEA-48FC347E5B93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{F90B4C28-5781-4DE7-848E-89D7C50BC339}"/>
   </bookViews>
   <sheets>
     <sheet name="output2Salted" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Salted Output (Range: 100 - 500)</a:t>
             </a:r>
           </a:p>
@@ -974,304 +981,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-418</c:v>
+                  <c:v>-231</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-444</c:v>
+                  <c:v>-381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-464</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>301</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>491</c:v>
+                  <c:v>-180</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-62</c:v>
+                  <c:v>-264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>676</c:v>
+                  <c:v>-52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>403</c:v>
+                  <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-153</c:v>
+                  <c:v>642</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>493</c:v>
+                  <c:v>-71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>353</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>741</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1073</c:v>
+                  <c:v>1009</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1133</c:v>
+                  <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>452</c:v>
+                  <c:v>1032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>663</c:v>
+                  <c:v>1332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>829</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1594</c:v>
+                  <c:v>1553</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1636</c:v>
+                  <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1835</c:v>
+                  <c:v>1695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1430</c:v>
+                  <c:v>1241</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2353</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2476</c:v>
+                  <c:v>1768</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1940</c:v>
+                  <c:v>2426</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2655</c:v>
+                  <c:v>2167</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2968</c:v>
+                  <c:v>2980</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3044</c:v>
+                  <c:v>3251</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2870</c:v>
+                  <c:v>3240</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3626</c:v>
+                  <c:v>3772</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3267</c:v>
+                  <c:v>3899</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3623</c:v>
+                  <c:v>3999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4308</c:v>
+                  <c:v>4310</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4631</c:v>
+                  <c:v>4636</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4804</c:v>
+                  <c:v>4945</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5277</c:v>
+                  <c:v>4970</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4877</c:v>
+                  <c:v>5373</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5232</c:v>
+                  <c:v>4968</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5515</c:v>
+                  <c:v>5866</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5711</c:v>
+                  <c:v>5614</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6688</c:v>
+                  <c:v>5943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6768</c:v>
+                  <c:v>6947</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7350</c:v>
+                  <c:v>7092</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7037</c:v>
+                  <c:v>7078</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7144</c:v>
+                  <c:v>8062</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8246</c:v>
+                  <c:v>8463</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7848</c:v>
+                  <c:v>7876</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8432</c:v>
+                  <c:v>9046</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9510</c:v>
+                  <c:v>8709</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9041</c:v>
+                  <c:v>9039</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9375</c:v>
+                  <c:v>9630</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9922</c:v>
+                  <c:v>10444</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11073</c:v>
+                  <c:v>11156</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11299</c:v>
+                  <c:v>11296</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11264</c:v>
+                  <c:v>11294</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11530</c:v>
+                  <c:v>11629</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12704</c:v>
+                  <c:v>12014</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13245</c:v>
+                  <c:v>12509</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>13530</c:v>
+                  <c:v>12967</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13474</c:v>
+                  <c:v>13413</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>14489</c:v>
+                  <c:v>14063</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14973</c:v>
+                  <c:v>15171</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14860</c:v>
+                  <c:v>15501</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15425</c:v>
+                  <c:v>15381</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>16418</c:v>
+                  <c:v>15700</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17117</c:v>
+                  <c:v>16481</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17488</c:v>
+                  <c:v>16731</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17899</c:v>
+                  <c:v>17590</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18528</c:v>
+                  <c:v>18467</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>19259</c:v>
+                  <c:v>19088</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19149</c:v>
+                  <c:v>19021</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>20185</c:v>
+                  <c:v>20244</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20390</c:v>
+                  <c:v>20994</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>21287</c:v>
+                  <c:v>20657</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>21361</c:v>
+                  <c:v>21828</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>22760</c:v>
+                  <c:v>22133</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23266</c:v>
+                  <c:v>22496</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23835</c:v>
+                  <c:v>23616</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23850</c:v>
+                  <c:v>24549</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>24413</c:v>
+                  <c:v>24314</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>25178</c:v>
+                  <c:v>25659</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>26475</c:v>
+                  <c:v>26175</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>26333</c:v>
+                  <c:v>26889</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>27207</c:v>
+                  <c:v>26841</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>27763</c:v>
+                  <c:v>28220</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>28261</c:v>
+                  <c:v>28459</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>29033</c:v>
+                  <c:v>29220</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>29884</c:v>
+                  <c:v>29698</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>30390</c:v>
+                  <c:v>31092</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>31832</c:v>
+                  <c:v>31610</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>31918</c:v>
+                  <c:v>32327</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>32572</c:v>
+                  <c:v>32968</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>33203</c:v>
+                  <c:v>34004</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>34609</c:v>
+                  <c:v>34182</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>35488</c:v>
+                  <c:v>35475</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>36148</c:v>
+                  <c:v>35419</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>37003</c:v>
+                  <c:v>36684</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>36964</c:v>
+                  <c:v>37841</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>37805</c:v>
+                  <c:v>38345</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>39040</c:v>
+                  <c:v>38659</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>39309</c:v>
+                  <c:v>39844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,7 +1286,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80B3-412D-9AB9-275C97501BE0}"/>
+              <c16:uniqueId val="{00000000-33FC-4590-BF64-F49E268963B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1291,11 +1298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1296075279"/>
-        <c:axId val="1296075759"/>
+        <c:axId val="1012355504"/>
+        <c:axId val="1012355024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1296075279"/>
+        <c:axId val="1012355504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,12 +1414,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1296075759"/>
+        <c:crossAx val="1012355024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1296075759"/>
+        <c:axId val="1012355024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1296075279"/>
+        <c:crossAx val="1012355504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2134,22 +2141,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741AE9FD-6014-95F9-3033-873C0BBFA246}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DDF447-8E1E-B938-6E61-17189EA5565C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E767089A-7D01-46A8-B25B-8AF5F8F5EE2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B541BC-E152-4BCA-82C8-8FA4FB85A85A}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2500,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-418</v>
+        <v>-231</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2508,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-444</v>
+        <v>-381</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2516,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2524,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>301</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2532,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>491</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2540,7 +2547,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-62</v>
+        <v>-264</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2548,7 +2555,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>676</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2556,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>403</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2564,7 +2571,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-153</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2572,7 +2579,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>493</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2580,7 +2587,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>353</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2588,7 +2595,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2596,7 +2603,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1073</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2604,7 +2611,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1133</v>
+        <v>951</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2612,7 +2619,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>452</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2620,7 +2627,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>663</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2628,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>829</v>
+        <v>893</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2636,7 +2643,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1594</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2644,7 +2651,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1636</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2652,7 +2659,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1835</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2660,7 +2667,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1430</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2668,7 +2675,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2353</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2676,7 +2683,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2476</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2684,7 +2691,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1940</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2692,7 +2699,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2655</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2700,7 +2707,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2968</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2708,7 +2715,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3044</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2716,7 +2723,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2870</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2724,7 +2731,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3626</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2732,7 +2739,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3267</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2740,7 +2747,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3623</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2748,7 +2755,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4308</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2756,7 +2763,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4631</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2764,7 +2771,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4804</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2772,7 +2779,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5277</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2780,7 +2787,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>4877</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2788,7 +2795,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>5232</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2796,7 +2803,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>5515</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2804,7 +2811,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5711</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2812,7 +2819,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6688</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2820,7 +2827,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>6768</v>
+        <v>6947</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2828,7 +2835,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7350</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2836,7 +2843,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7037</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2844,7 +2851,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7144</v>
+        <v>8062</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2852,7 +2859,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>8246</v>
+        <v>8463</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2860,7 +2867,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7848</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2868,7 +2875,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>8432</v>
+        <v>9046</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2876,7 +2883,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>9510</v>
+        <v>8709</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2884,7 +2891,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>9041</v>
+        <v>9039</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2892,7 +2899,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>9375</v>
+        <v>9630</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2900,7 +2907,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>9922</v>
+        <v>10444</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2908,7 +2915,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>11073</v>
+        <v>11156</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2916,7 +2923,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>11299</v>
+        <v>11296</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2924,7 +2931,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>11264</v>
+        <v>11294</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2932,7 +2939,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>11530</v>
+        <v>11629</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2940,7 +2947,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>12704</v>
+        <v>12014</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2948,7 +2955,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>13245</v>
+        <v>12509</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2956,7 +2963,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>13530</v>
+        <v>12967</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2964,7 +2971,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>13474</v>
+        <v>13413</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +2979,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>14489</v>
+        <v>14063</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2980,7 +2987,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>14973</v>
+        <v>15171</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2988,7 +2995,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>14860</v>
+        <v>15501</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,7 +3003,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>15425</v>
+        <v>15381</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3004,7 +3011,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>16418</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3012,7 +3019,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>17117</v>
+        <v>16481</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3020,7 +3027,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>17488</v>
+        <v>16731</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3028,7 +3035,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>17899</v>
+        <v>17590</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3036,7 +3043,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>18528</v>
+        <v>18467</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3044,7 +3051,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>19259</v>
+        <v>19088</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3052,7 +3059,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>19149</v>
+        <v>19021</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3060,7 +3067,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>20185</v>
+        <v>20244</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3068,7 +3075,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>20390</v>
+        <v>20994</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3076,7 +3083,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>21287</v>
+        <v>20657</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3084,7 +3091,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>21361</v>
+        <v>21828</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3092,7 +3099,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>22760</v>
+        <v>22133</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3100,7 +3107,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>23266</v>
+        <v>22496</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3108,7 +3115,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>23835</v>
+        <v>23616</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3116,7 +3123,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>23850</v>
+        <v>24549</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3124,7 +3131,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>24413</v>
+        <v>24314</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3132,7 +3139,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>25178</v>
+        <v>25659</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3140,7 +3147,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>26475</v>
+        <v>26175</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3148,7 +3155,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>26333</v>
+        <v>26889</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3156,7 +3163,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>27207</v>
+        <v>26841</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3164,7 +3171,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>27763</v>
+        <v>28220</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3172,7 +3179,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>28261</v>
+        <v>28459</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3180,7 +3187,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>29033</v>
+        <v>29220</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3188,7 +3195,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>29884</v>
+        <v>29698</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3196,7 +3203,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>30390</v>
+        <v>31092</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3204,7 +3211,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>31832</v>
+        <v>31610</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3212,7 +3219,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>31918</v>
+        <v>32327</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3220,7 +3227,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>32572</v>
+        <v>32968</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3228,7 +3235,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>33203</v>
+        <v>34004</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3236,7 +3243,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>34609</v>
+        <v>34182</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3244,7 +3251,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>35488</v>
+        <v>35475</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3252,7 +3259,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>36148</v>
+        <v>35419</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3260,7 +3267,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>37003</v>
+        <v>36684</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3268,7 +3275,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>36964</v>
+        <v>37841</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3276,7 +3283,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>37805</v>
+        <v>38345</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3284,7 +3291,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>39040</v>
+        <v>38659</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3292,7 +3299,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>39309</v>
+        <v>39844</v>
       </c>
     </row>
   </sheetData>
